--- a/Analysis/mh_recode_file.xlsx
+++ b/Analysis/mh_recode_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="231">
   <si>
     <t>pos</t>
   </si>
@@ -654,12 +654,6 @@
     <t>gad7</t>
   </si>
   <si>
-    <t>PHQ 9</t>
-  </si>
-  <si>
-    <t>GAD 7</t>
-  </si>
-  <si>
     <t>socio_econ</t>
   </si>
   <si>
@@ -703,6 +697,27 @@
   </si>
   <si>
     <t>Social media use</t>
+  </si>
+  <si>
+    <t>GAD 7 Score</t>
+  </si>
+  <si>
+    <t>PHQ 9 Score</t>
+  </si>
+  <si>
+    <t>PSQ Score</t>
+  </si>
+  <si>
+    <t>gad7_anxiety_severity</t>
+  </si>
+  <si>
+    <t>phq9_depression_severity</t>
+  </si>
+  <si>
+    <t>GAD-7 Anxiety Severity</t>
+  </si>
+  <si>
+    <t>PHQ-9 Depression Severity</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1449,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2246,7 +2261,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2807,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,7 +2833,7 @@
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="14" customWidth="1"/>
     <col min="5" max="5" width="38.7265625" style="14" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
@@ -2860,19 +2875,19 @@
         <v>3</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2895,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>12</v>
@@ -2983,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>12</v>
@@ -3241,7 +3256,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>20</v>
@@ -3291,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>12</v>
@@ -3335,7 +3350,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>12</v>
@@ -3379,7 +3394,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>12</v>
@@ -3423,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>12</v>
@@ -3473,13 +3488,13 @@
         <v>12</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>12</v>
@@ -3517,13 +3532,13 @@
         <v>12</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>12</v>
@@ -3561,13 +3576,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>12</v>
@@ -3605,13 +3620,13 @@
         <v>12</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>12</v>
@@ -3649,13 +3664,13 @@
         <v>12</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>12</v>
@@ -3693,13 +3708,13 @@
         <v>12</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>12</v>
@@ -3737,13 +3752,13 @@
         <v>12</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>208</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>12</v>
@@ -3781,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>12</v>
@@ -3796,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -3825,7 +3840,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>12</v>
@@ -3868,14 +3883,14 @@
       <c r="H24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>209</v>
+      <c r="I24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>12</v>
@@ -3912,14 +3927,14 @@
       <c r="H25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>209</v>
+      <c r="I25" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>12</v>
@@ -3956,14 +3971,14 @@
       <c r="H26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>209</v>
+      <c r="I26" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>12</v>
@@ -4000,14 +4015,14 @@
       <c r="H27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>209</v>
+      <c r="I27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>12</v>
@@ -4044,14 +4059,14 @@
       <c r="H28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>209</v>
+      <c r="I28" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>12</v>
@@ -4088,14 +4103,14 @@
       <c r="H29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>209</v>
+      <c r="I29" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>12</v>
@@ -4132,14 +4147,14 @@
       <c r="H30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>209</v>
+      <c r="I30" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>12</v>
@@ -4176,14 +4191,14 @@
       <c r="H31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>209</v>
+      <c r="I31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>12</v>
@@ -4220,14 +4235,14 @@
       <c r="H32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>209</v>
+      <c r="I32" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>207</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>12</v>
@@ -4264,8 +4279,8 @@
       <c r="H33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>12</v>
+      <c r="I33" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>12</v>
@@ -4280,10 +4295,10 @@
         <v>12</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -4309,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>12</v>
@@ -4359,7 +4374,7 @@
         <v>150</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>12</v>
@@ -4403,7 +4418,7 @@
         <v>150</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>12</v>
@@ -4447,7 +4462,7 @@
         <v>150</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>12</v>
@@ -4491,7 +4506,7 @@
         <v>150</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>12</v>
@@ -4535,7 +4550,7 @@
         <v>150</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>12</v>
@@ -4579,7 +4594,7 @@
         <v>150</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>12</v>
@@ -4623,7 +4638,7 @@
         <v>150</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>12</v>
@@ -4667,7 +4682,7 @@
         <v>150</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>12</v>
@@ -4711,7 +4726,7 @@
         <v>150</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>12</v>
@@ -4755,7 +4770,7 @@
         <v>150</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>12</v>
@@ -4793,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>12</v>
@@ -4837,7 +4852,7 @@
         <v>13</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>12</v>
@@ -4852,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -4940,6 +4955,94 @@
         <v>12</v>
       </c>
       <c r="N48" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4952,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -4967,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4975,7 +5078,7 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4983,7 +5086,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4991,7 +5094,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4999,7 +5102,7 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5007,7 +5110,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5015,7 +5118,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5023,7 +5126,7 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5031,7 +5134,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5039,7 +5142,7 @@
         <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5047,7 +5150,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5055,7 +5158,7 @@
         <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5063,7 +5166,7 @@
         <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5071,7 +5174,7 @@
         <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5079,7 +5182,7 @@
         <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5087,7 +5190,7 @@
         <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5095,7 +5198,7 @@
         <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5103,7 +5206,7 @@
         <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5111,7 +5214,7 @@
         <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5119,7 +5222,7 @@
         <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5127,7 +5230,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5135,7 +5238,7 @@
         <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5143,7 +5246,7 @@
         <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5151,7 +5254,7 @@
         <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5159,7 +5262,7 @@
         <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5167,7 +5270,7 @@
         <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5175,7 +5278,7 @@
         <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5198,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
